--- a/biology/Écologie/Sonia_Kéfi/Sonia_Kéfi.xlsx
+++ b/biology/Écologie/Sonia_Kéfi/Sonia_Kéfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sonia_K%C3%A9fi</t>
+          <t>Sonia_Kéfi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sonia Kéfi est une chercheuse française en écologie, chargée de recherche au CNRS à l’institut des Sciences de l’évolution de Montpellier. Elle est récipiendaire de la Médaille de bronze du CNRS 2017[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sonia Kéfi est une chercheuse française en écologie, chargée de recherche au CNRS à l’institut des Sciences de l’évolution de Montpellier. Elle est récipiendaire de la Médaille de bronze du CNRS 2017,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sonia_K%C3%A9fi</t>
+          <t>Sonia_Kéfi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2008, Kéfi obtient un doctorat en écologie de l'université d'Utrecht aux Pays-Bas. À la suite de ceci, elle effectue un post doctorat à l'université technique de Darmstdat en Allemagne
 En 2011, elle est recrutée par l'Institut des sciences de l’évolution de Montpellier (ISEM). Elle crée une nouvelle équipe de recherche intitulée BioDICée (Biodiversité : dynamique, interactions et conservation).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sonia_K%C3%A9fi</t>
+          <t>Sonia_Kéfi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Van Marum en sciences de l’environnement de la Société royale néerlandaise des arts et des sciences (2011) [3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Van Marum en sciences de l’environnement de la Société royale néerlandaise des arts et des sciences (2011) 
 Médaille de bronze du CNRS 2017</t>
         </is>
       </c>
